--- a/Documentation/Projets 2023 - Répartition.xlsx
+++ b/Documentation/Projets 2023 - Répartition.xlsx
@@ -385,15 +385,27 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF6D"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -409,6 +421,20 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="medium"/>
@@ -416,6 +442,34 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
@@ -430,35 +484,7 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="medium"/>
       <top/>
       <bottom style="medium"/>
@@ -490,7 +516,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -503,15 +529,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,47 +597,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,6 +618,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF6D"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF77BC65"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -582,17 +688,17 @@
   </sheetPr>
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="75.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,94 +715,94 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -704,124 +810,124 @@
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="29.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="8" t="n">
+      <c r="C13" s="7"/>
+      <c r="D13" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1"/>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="29.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8" t="n">
+      <c r="C16" s="7"/>
+      <c r="D16" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1"/>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="29.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -833,52 +939,52 @@
       <c r="C21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="29.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="22" t="s">
         <v>44</v>
       </c>
     </row>
